--- a/hemp_data.xlsx
+++ b/hemp_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hkkim\OneDrive\바탕 화면\정보디자인데이터\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9613FC93-E539-408F-8C00-9A2D29C00C79}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9B0B0E-EC31-4153-AAC5-0D130958364B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19275" windowHeight="7845" xr2:uid="{5EF85D62-9215-47D4-83C2-8E6417029642}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,14 +86,6 @@
     <t>Chihuahua</t>
   </si>
   <si>
-    <t>Validator Balance(Nakamoto Coefficient) (클수록 좋은 것)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stability(작을수록 좋은것)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Participation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -102,15 +94,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Rejection Rate(%)</t>
+    <t>Stability</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>평균</t>
+    <t>Rejection Rate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>표준편차</t>
+    <t>Validator Balance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#ofProposal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -135,21 +131,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -172,17 +162,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -499,485 +521,495 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB8667C6-768F-4400-9806-471977E6A35B}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="55.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
+        <v>65</v>
+      </c>
+      <c r="C2">
         <f>0.8842*20</f>
         <v>17.684000000000001</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <f>0.9973*20</f>
         <v>19.945999999999998</v>
       </c>
-      <c r="D2" s="1">
-        <v>0.1512</v>
-      </c>
-      <c r="E2" s="1">
-        <f>3/65*100</f>
-        <v>4.6153846153846159</v>
+      <c r="E2" s="2">
+        <v>2</v>
       </c>
       <c r="F2" s="1">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
+        <v>791</v>
+      </c>
+      <c r="C3">
         <f>0.5549*20</f>
         <v>11.097999999999999</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <f>0.9288*20</f>
         <v>18.576000000000001</v>
       </c>
-      <c r="D3" s="1">
-        <v>0.15140000000000001</v>
-      </c>
       <c r="E3" s="1">
-        <f>67/791*100</f>
-        <v>8.470290771175728</v>
+        <v>3</v>
       </c>
       <c r="F3" s="1">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
+        <v>377</v>
+      </c>
+      <c r="C4">
         <f>0.6258*20</f>
         <v>12.516</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <f>0.9062*20</f>
         <v>18.123999999999999</v>
       </c>
-      <c r="D4" s="1">
-        <v>0.1047</v>
-      </c>
       <c r="E4" s="1">
-        <f>11/377*100</f>
-        <v>2.9177718832891246</v>
+        <v>5</v>
       </c>
       <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
+        <v>300</v>
+      </c>
+      <c r="C5">
         <f>0.553*20</f>
         <v>11.06</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <f>0.967*20</f>
         <v>19.34</v>
       </c>
-      <c r="D5" s="1">
-        <v>0.11650000000000001</v>
-      </c>
       <c r="E5" s="1">
-        <f>13/300*100</f>
-        <v>4.3333333333333339</v>
+        <v>6</v>
       </c>
       <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
+        <v>295</v>
+      </c>
+      <c r="C6">
         <f>0.541*20</f>
         <v>10.82</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <f>0.9372*20</f>
         <v>18.744</v>
       </c>
-      <c r="D6" s="1">
-        <v>0.1381</v>
-      </c>
       <c r="E6" s="1">
-        <f>58/295*100</f>
-        <v>19.661016949152543</v>
+        <v>10</v>
       </c>
       <c r="F6" s="1">
+        <v>9</v>
+      </c>
+      <c r="G6" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
+        <v>179</v>
+      </c>
+      <c r="C7">
         <f>0.4766*20</f>
         <v>9.532</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <f>0.881*20</f>
         <v>17.62</v>
       </c>
-      <c r="D7" s="1">
-        <v>5.0099999999999999E-2</v>
-      </c>
       <c r="E7" s="1">
-        <f>57/179*100</f>
-        <v>31.843575418994412</v>
+        <v>15</v>
       </c>
       <c r="F7" s="1">
+        <v>15</v>
+      </c>
+      <c r="G7" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
+        <v>262</v>
+      </c>
+      <c r="C8">
         <f>0.7799*20</f>
         <v>15.598000000000001</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <f>0.9575*20</f>
         <v>19.149999999999999</v>
       </c>
-      <c r="D8" s="1">
-        <v>0.18790000000000001</v>
-      </c>
       <c r="E8" s="1">
-        <f>23/262*100</f>
-        <v>8.778625954198473</v>
+        <v>16</v>
       </c>
       <c r="F8" s="1">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
+        <v>201</v>
+      </c>
+      <c r="C9">
         <f>0.5952*20</f>
         <v>11.904</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <f>0.8456*20</f>
         <v>16.911999999999999</v>
       </c>
-      <c r="D9" s="1">
-        <v>0.13300000000000001</v>
-      </c>
       <c r="E9" s="1">
-        <f>29/201*100</f>
-        <v>14.427860696517413</v>
+        <v>7</v>
       </c>
       <c r="F9" s="1">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10">
+        <v>200</v>
+      </c>
+      <c r="C10">
         <f>0.4781*20</f>
         <v>9.5620000000000012</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <f>0.9488*20</f>
         <v>18.975999999999999</v>
       </c>
-      <c r="D10" s="1">
-        <v>0.1055</v>
-      </c>
       <c r="E10" s="1">
-        <f>24/200*100</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F10" s="1">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11">
+        <v>196</v>
+      </c>
+      <c r="C11">
         <f>0.7921*20</f>
         <v>15.842000000000001</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <f>0.9389*20</f>
         <v>18.777999999999999</v>
       </c>
-      <c r="D11" s="1">
-        <v>0.15390000000000001</v>
-      </c>
       <c r="E11" s="1">
-        <f>38/196*100</f>
-        <v>19.387755102040817</v>
+        <v>11</v>
       </c>
       <c r="F11" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12">
+        <v>137</v>
+      </c>
+      <c r="C12">
         <f>0.7317*20</f>
         <v>14.634</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <f>0.985*20</f>
         <v>19.7</v>
       </c>
-      <c r="D12" s="1">
-        <v>0.12989999999999999</v>
-      </c>
       <c r="E12" s="1">
-        <f>6/137*100</f>
-        <v>4.3795620437956204</v>
+        <v>10</v>
       </c>
       <c r="F12" s="1">
+        <v>7</v>
+      </c>
+      <c r="G12" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13">
+        <v>135</v>
+      </c>
+      <c r="C13">
         <f>0.7332*20</f>
         <v>14.664</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <f>0.9252*20</f>
         <v>18.504000000000001</v>
       </c>
-      <c r="D13" s="1">
-        <v>0.16869999999999999</v>
-      </c>
       <c r="E13" s="1">
-        <f>20/135*100</f>
-        <v>14.814814814814813</v>
+        <v>20</v>
       </c>
       <c r="F13" s="1">
+        <v>8</v>
+      </c>
+      <c r="G13" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14">
+        <v>118</v>
+      </c>
+      <c r="C14">
         <f>0.786*20</f>
         <v>15.72</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <f>0.8444*20</f>
         <v>16.888000000000002</v>
       </c>
-      <c r="D14" s="1">
-        <v>0.1474</v>
-      </c>
       <c r="E14" s="1">
-        <f>56/118*100</f>
-        <v>47.457627118644069</v>
+        <v>15</v>
       </c>
       <c r="F14" s="1">
+        <v>8</v>
+      </c>
+      <c r="G14" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15">
+        <v>30</v>
+      </c>
+      <c r="C15">
         <f>0.5431*20</f>
         <v>10.862</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <f>0.9849*20</f>
         <v>19.698</v>
       </c>
-      <c r="D15" s="1">
-        <v>0.1197</v>
-      </c>
       <c r="E15" s="1">
+        <v>15</v>
+      </c>
+      <c r="F15" s="1">
         <f>6/30*100</f>
         <v>20</v>
       </c>
-      <c r="F15" s="1">
+      <c r="G15" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16">
+        <v>90</v>
+      </c>
+      <c r="C16">
         <f>0.9474*20</f>
         <v>18.948</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <f>0.9591*20</f>
         <v>19.181999999999999</v>
       </c>
-      <c r="D16" s="1">
-        <v>9.7000000000000003E-2</v>
-      </c>
       <c r="E16" s="1">
-        <f>21/90*100</f>
-        <v>23.333333333333332</v>
+        <v>12</v>
       </c>
       <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17">
+        <v>34</v>
+      </c>
+      <c r="C17">
         <f>0.431*20</f>
         <v>8.6199999999999992</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <f>0.9993*20</f>
         <v>19.986000000000001</v>
       </c>
-      <c r="D17" s="1">
-        <v>7.3999999999999996E-2</v>
-      </c>
       <c r="E17" s="1">
-        <f>0*100</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F17" s="1">
+        <v>5</v>
+      </c>
+      <c r="G17" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18">
+        <v>79</v>
+      </c>
+      <c r="C18">
         <f>0.5736*20</f>
         <v>11.472</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <f>0.9574*20</f>
         <v>19.148</v>
       </c>
-      <c r="D18" s="1">
-        <v>9.64E-2</v>
-      </c>
       <c r="E18" s="1">
-        <f>16/79*100</f>
-        <v>20.253164556962027</v>
+        <v>12</v>
       </c>
       <c r="F18" s="1">
+        <v>20</v>
+      </c>
+      <c r="G18" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
       <c r="B19">
+        <v>81</v>
+      </c>
+      <c r="C19">
         <f>0.7707*20</f>
         <v>15.414000000000001</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <f>0.9295*20</f>
         <v>18.59</v>
       </c>
-      <c r="D19" s="1">
-        <v>0.20030000000000001</v>
-      </c>
       <c r="E19" s="1">
-        <f>9/81*100</f>
-        <v>11.111111111111111</v>
+        <v>19</v>
       </c>
       <c r="F19" s="1">
+        <v>3</v>
+      </c>
+      <c r="G19" s="1">
         <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0.12920000000000001</v>
-      </c>
-      <c r="E21" s="1">
-        <v>14.877000000000001</v>
-      </c>
-      <c r="F21" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="1">
-        <f>TRUNC(_xlfn.STDEV.P(D2:D19),4)</f>
-        <v>3.7100000000000001E-2</v>
-      </c>
-      <c r="E22" s="1">
-        <f>TRUNC(_xlfn.STDEV.P(E2:E19),4)</f>
-        <v>11.331200000000001</v>
-      </c>
-      <c r="F22" s="1">
-        <f>TRUNC(_xlfn.STDEV.P(F2:F19),4)</f>
-        <v>4.8761999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/hemp_data.xlsx
+++ b/hemp_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hkkim\OneDrive\바탕 화면\정보디자인데이터\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9B0B0E-EC31-4153-AAC5-0D130958364B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AEDBBD9-E69E-425C-98B2-D190C57A8ECA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19275" windowHeight="7845" xr2:uid="{5EF85D62-9215-47D4-83C2-8E6417029642}"/>
   </bookViews>
@@ -94,19 +94,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Stability</t>
+    <t>#ofProposal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Rejection Rate</t>
+    <t>Stability(작을수록 좋은것)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Validator Balance</t>
+    <t>Acceptance Rate(%)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#ofProposal</t>
+    <t>Validator Balance(Nakamoto Coefficient) (클수록 좋은 것)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -131,61 +131,32 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -194,17 +165,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -523,19 +497,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB8667C6-768F-4400-9806-471977E6A35B}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -543,476 +517,496 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B2">
-        <v>65</v>
-      </c>
-      <c r="C2">
-        <f>0.8842*20</f>
-        <v>17.684000000000001</v>
-      </c>
-      <c r="D2">
-        <f>0.9973*20</f>
-        <v>19.945999999999998</v>
-      </c>
-      <c r="E2" s="2">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1">
-        <v>2</v>
-      </c>
-      <c r="G2" s="1">
-        <v>12</v>
+        <v>90</v>
+      </c>
+      <c r="C2" s="1">
+        <f>TRUNC(0.9474*26, 2)</f>
+        <v>24.63</v>
+      </c>
+      <c r="D2" s="3">
+        <f>TRUNC( 0.9591*16,2)</f>
+        <v>15.34</v>
+      </c>
+      <c r="E2" s="4">
+        <v>13</v>
+      </c>
+      <c r="F2" s="4">
+        <f>TRUNC(69/90*16,2)</f>
+        <v>12.26</v>
+      </c>
+      <c r="G2" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>791</v>
-      </c>
-      <c r="C3">
-        <f>0.5549*20</f>
-        <v>11.097999999999999</v>
-      </c>
-      <c r="D3">
-        <f>0.9288*20</f>
-        <v>18.576000000000001</v>
-      </c>
-      <c r="E3" s="1">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1">
-        <v>4</v>
-      </c>
-      <c r="G3" s="1">
-        <v>19</v>
+        <v>200</v>
+      </c>
+      <c r="C3" s="1">
+        <f>TRUNC(0.4781*26, 2)</f>
+        <v>12.43</v>
+      </c>
+      <c r="D3" s="3">
+        <f>TRUNC( 0.9488*16,2)</f>
+        <v>15.18</v>
+      </c>
+      <c r="E3" s="4">
+        <v>11</v>
+      </c>
+      <c r="F3" s="4">
+        <f>TRUNC(176/200*16,2)</f>
+        <v>14.08</v>
+      </c>
+      <c r="G3" s="2">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>377</v>
-      </c>
-      <c r="C4">
-        <f>0.6258*20</f>
-        <v>12.516</v>
-      </c>
-      <c r="D4">
-        <f>0.9062*20</f>
-        <v>18.123999999999999</v>
-      </c>
-      <c r="E4" s="1">
-        <v>5</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1">
-        <v>10</v>
+        <v>201</v>
+      </c>
+      <c r="C4" s="1">
+        <f>TRUNC(0.5952*26, 2)</f>
+        <v>15.47</v>
+      </c>
+      <c r="D4" s="3">
+        <f>TRUNC( 0.8456*16,2)</f>
+        <v>13.52</v>
+      </c>
+      <c r="E4" s="4">
+        <v>7</v>
+      </c>
+      <c r="F4" s="4">
+        <f>TRUNC(170/201*16,2)</f>
+        <v>13.53</v>
+      </c>
+      <c r="G4" s="2">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B5">
-        <v>300</v>
-      </c>
-      <c r="C5">
-        <f>0.553*20</f>
-        <v>11.06</v>
-      </c>
-      <c r="D5">
-        <f>0.967*20</f>
-        <v>19.34</v>
-      </c>
-      <c r="E5" s="1">
-        <v>6</v>
-      </c>
-      <c r="F5" s="1">
-        <v>2</v>
-      </c>
-      <c r="G5" s="1">
-        <v>11</v>
+        <v>30</v>
+      </c>
+      <c r="C5" s="1">
+        <f>TRUNC(0.5431*26, 2)</f>
+        <v>14.12</v>
+      </c>
+      <c r="D5" s="3">
+        <f>TRUNC( 0.9849*16,2)</f>
+        <v>15.75</v>
+      </c>
+      <c r="E5" s="4">
+        <v>9</v>
+      </c>
+      <c r="F5" s="4">
+        <f>24/30*16</f>
+        <v>12.8</v>
+      </c>
+      <c r="G5" s="2">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>295</v>
-      </c>
-      <c r="C6">
-        <f>0.541*20</f>
-        <v>10.82</v>
-      </c>
-      <c r="D6">
-        <f>0.9372*20</f>
-        <v>18.744</v>
-      </c>
-      <c r="E6" s="1">
-        <v>10</v>
-      </c>
-      <c r="F6" s="1">
-        <v>9</v>
-      </c>
-      <c r="G6" s="1">
-        <v>16</v>
+        <v>196</v>
+      </c>
+      <c r="C6" s="1">
+        <f>TRUNC(0.7921*26, 2)</f>
+        <v>20.59</v>
+      </c>
+      <c r="D6" s="3">
+        <f>TRUNC( 0.9389*16,2)</f>
+        <v>15.02</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2</v>
+      </c>
+      <c r="F6" s="4">
+        <f>TRUNC(156/196*16,2)</f>
+        <v>12.73</v>
+      </c>
+      <c r="G6" s="2">
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B7">
-        <v>179</v>
-      </c>
-      <c r="C7">
-        <f>0.4766*20</f>
-        <v>9.532</v>
-      </c>
-      <c r="D7">
-        <f>0.881*20</f>
-        <v>17.62</v>
-      </c>
-      <c r="E7" s="1">
-        <v>15</v>
-      </c>
-      <c r="F7" s="1">
-        <v>15</v>
-      </c>
-      <c r="G7" s="1">
-        <v>10</v>
+        <v>79</v>
+      </c>
+      <c r="C7" s="1">
+        <f>TRUNC(0.5736*26, 2)</f>
+        <v>14.91</v>
+      </c>
+      <c r="D7" s="3">
+        <f>TRUNC( 0.9574*16,2)</f>
+        <v>15.31</v>
+      </c>
+      <c r="E7" s="4">
+        <v>14</v>
+      </c>
+      <c r="F7" s="4">
+        <f>TRUNC(63/79*16,2)</f>
+        <v>12.75</v>
+      </c>
+      <c r="G7" s="2">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B8">
-        <v>262</v>
-      </c>
-      <c r="C8">
-        <f>0.7799*20</f>
-        <v>15.598000000000001</v>
-      </c>
-      <c r="D8">
-        <f>0.9575*20</f>
-        <v>19.149999999999999</v>
-      </c>
-      <c r="E8" s="1">
-        <v>16</v>
-      </c>
-      <c r="F8" s="1">
-        <v>5</v>
-      </c>
-      <c r="G8" s="1">
+        <v>81</v>
+      </c>
+      <c r="C8" s="1">
+        <f>TRUNC(0.7707*26, 2)</f>
+        <v>20.03</v>
+      </c>
+      <c r="D8" s="3">
+        <f>TRUNC( 0.9295*16,2)</f>
+        <v>14.87</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4">
+        <f>TRUNC(71/81*16,2)</f>
+        <v>14.02</v>
+      </c>
+      <c r="G8" s="2">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B9">
-        <v>201</v>
-      </c>
-      <c r="C9">
-        <f>0.5952*20</f>
-        <v>11.904</v>
-      </c>
-      <c r="D9">
-        <f>0.8456*20</f>
-        <v>16.911999999999999</v>
-      </c>
-      <c r="E9" s="1">
-        <v>7</v>
-      </c>
-      <c r="F9" s="1">
-        <v>3</v>
-      </c>
-      <c r="G9" s="1">
-        <v>4</v>
+        <v>377</v>
+      </c>
+      <c r="C9" s="1">
+        <f>TRUNC(0.6258*26, 2)</f>
+        <v>16.27</v>
+      </c>
+      <c r="D9" s="3">
+        <f>TRUNC( 0.9062*16,2)</f>
+        <v>14.49</v>
+      </c>
+      <c r="E9" s="4">
+        <v>12</v>
+      </c>
+      <c r="F9" s="4">
+        <f>TRUNC(360/377*16,2)</f>
+        <v>15.27</v>
+      </c>
+      <c r="G9" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B10">
-        <v>200</v>
-      </c>
-      <c r="C10">
-        <f>0.4781*20</f>
-        <v>9.5620000000000012</v>
-      </c>
-      <c r="D10">
-        <f>0.9488*20</f>
-        <v>18.975999999999999</v>
-      </c>
-      <c r="E10" s="1">
-        <v>18</v>
-      </c>
-      <c r="F10" s="1">
-        <v>5</v>
-      </c>
-      <c r="G10" s="1">
-        <v>3</v>
+        <v>179</v>
+      </c>
+      <c r="C10" s="1">
+        <f>TRUNC(0.4766*26, 2)</f>
+        <v>12.39</v>
+      </c>
+      <c r="D10" s="3">
+        <f>TRUNC( 0.881*16,2)</f>
+        <v>14.09</v>
+      </c>
+      <c r="E10" s="4">
+        <v>16</v>
+      </c>
+      <c r="F10" s="4">
+        <f>TRUNC(119/179*16,2)</f>
+        <v>10.63</v>
+      </c>
+      <c r="G10" s="2">
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>196</v>
-      </c>
-      <c r="C11">
-        <f>0.7921*20</f>
-        <v>15.842000000000001</v>
-      </c>
-      <c r="D11">
-        <f>0.9389*20</f>
-        <v>18.777999999999999</v>
-      </c>
-      <c r="E11" s="1">
-        <v>11</v>
-      </c>
-      <c r="F11" s="1">
-        <v>6</v>
-      </c>
-      <c r="G11" s="1">
-        <v>6</v>
+        <v>135</v>
+      </c>
+      <c r="C11" s="1">
+        <f>TRUNC(0.7332*26, 2)</f>
+        <v>19.059999999999999</v>
+      </c>
+      <c r="D11" s="3">
+        <f>TRUNC( 0.9252*16,2)</f>
+        <v>14.8</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4">
+        <f>TRUNC(114/135*16,2)</f>
+        <v>13.51</v>
+      </c>
+      <c r="G11" s="2">
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B12">
-        <v>137</v>
-      </c>
-      <c r="C12">
-        <f>0.7317*20</f>
-        <v>14.634</v>
-      </c>
-      <c r="D12">
-        <f>0.985*20</f>
-        <v>19.7</v>
-      </c>
-      <c r="E12" s="1">
+        <v>300</v>
+      </c>
+      <c r="C12" s="1">
+        <f>TRUNC(0.553*26, 2)</f>
+        <v>14.37</v>
+      </c>
+      <c r="D12" s="3">
+        <f>TRUNC( 0.967*16,2)</f>
+        <v>15.47</v>
+      </c>
+      <c r="E12" s="4">
         <v>10</v>
       </c>
-      <c r="F12" s="1">
-        <v>7</v>
-      </c>
-      <c r="G12" s="1">
-        <v>15</v>
+      <c r="F12" s="4">
+        <f>TRUNC(283/300*16,2)</f>
+        <v>15.09</v>
+      </c>
+      <c r="G12" s="2">
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B13">
-        <v>135</v>
-      </c>
-      <c r="C13">
-        <f>0.7332*20</f>
-        <v>14.664</v>
-      </c>
-      <c r="D13">
-        <f>0.9252*20</f>
-        <v>18.504000000000001</v>
-      </c>
-      <c r="E13" s="1">
+        <v>65</v>
+      </c>
+      <c r="C13" s="1">
+        <f>TRUNC(0.8842*26, 2)</f>
+        <v>22.98</v>
+      </c>
+      <c r="D13" s="3">
+        <f>TRUNC( 0.9973*16,2)</f>
+        <v>15.95</v>
+      </c>
+      <c r="E13" s="4">
+        <v>4</v>
+      </c>
+      <c r="F13" s="4">
+        <f>TRUNC(62/65*16,2)</f>
+        <v>15.26</v>
+      </c>
+      <c r="G13" s="2">
         <v>20</v>
-      </c>
-      <c r="F13" s="1">
-        <v>8</v>
-      </c>
-      <c r="G13" s="1">
-        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B14">
-        <v>118</v>
-      </c>
-      <c r="C14">
-        <f>0.786*20</f>
-        <v>15.72</v>
-      </c>
-      <c r="D14">
-        <f>0.8444*20</f>
-        <v>16.888000000000002</v>
-      </c>
-      <c r="E14" s="1">
+        <v>34</v>
+      </c>
+      <c r="C14" s="1">
+        <f>TRUNC(0.431*26, 2)</f>
+        <v>11.2</v>
+      </c>
+      <c r="D14" s="3">
+        <f>TRUNC( 0.9993*16,2)</f>
+        <v>15.98</v>
+      </c>
+      <c r="E14" s="4">
         <v>15</v>
       </c>
-      <c r="F14" s="1">
-        <v>8</v>
-      </c>
-      <c r="G14" s="1">
-        <v>16</v>
+      <c r="F14" s="4">
+        <f>TRUNC(33/34*16,2)</f>
+        <v>15.52</v>
+      </c>
+      <c r="G14" s="2">
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B15">
-        <v>30</v>
-      </c>
-      <c r="C15">
-        <f>0.5431*20</f>
-        <v>10.862</v>
-      </c>
-      <c r="D15">
-        <f>0.9849*20</f>
-        <v>19.698</v>
-      </c>
-      <c r="E15" s="1">
-        <v>15</v>
-      </c>
-      <c r="F15" s="1">
-        <f>6/30*100</f>
-        <v>20</v>
-      </c>
-      <c r="G15" s="1">
-        <v>5</v>
+        <v>262</v>
+      </c>
+      <c r="C15" s="1">
+        <f>TRUNC(0.7799*26, 2)</f>
+        <v>20.27</v>
+      </c>
+      <c r="D15" s="3">
+        <f>TRUNC( 0.9575*16,2)</f>
+        <v>15.32</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+      <c r="F15" s="4">
+        <f>TRUNC(239/262*16,2)</f>
+        <v>14.59</v>
+      </c>
+      <c r="G15" s="2">
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B16">
-        <v>90</v>
-      </c>
-      <c r="C16">
-        <f>0.9474*20</f>
-        <v>18.948</v>
-      </c>
-      <c r="D16">
-        <f>0.9591*20</f>
-        <v>19.181999999999999</v>
-      </c>
-      <c r="E16" s="1">
-        <v>12</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1</v>
-      </c>
-      <c r="G16" s="1">
-        <v>2</v>
+        <v>137</v>
+      </c>
+      <c r="C16" s="1">
+        <f>TRUNC(0.7317*26, 2)</f>
+        <v>19.02</v>
+      </c>
+      <c r="D16" s="3">
+        <f>TRUNC( 0.985*16,2)</f>
+        <v>15.76</v>
+      </c>
+      <c r="E16" s="4">
+        <v>8</v>
+      </c>
+      <c r="F16" s="4">
+        <f>TRUNC(127/137*16,2)</f>
+        <v>14.83</v>
+      </c>
+      <c r="G16" s="2">
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B17">
-        <v>34</v>
-      </c>
-      <c r="C17">
-        <f>0.431*20</f>
-        <v>8.6199999999999992</v>
-      </c>
-      <c r="D17">
-        <f>0.9993*20</f>
-        <v>19.986000000000001</v>
-      </c>
-      <c r="E17" s="1">
-        <v>11</v>
-      </c>
-      <c r="F17" s="1">
+        <v>118</v>
+      </c>
+      <c r="C17" s="1">
+        <f>TRUNC(0.786*26, 2)</f>
+        <v>20.43</v>
+      </c>
+      <c r="D17" s="3">
+        <f>TRUNC( 0.8444*16,2)</f>
+        <v>13.51</v>
+      </c>
+      <c r="E17" s="4">
         <v>5</v>
       </c>
-      <c r="G17" s="1">
-        <v>12</v>
+      <c r="F17" s="4">
+        <f>TRUNC(62/118*16,2)</f>
+        <v>8.4</v>
+      </c>
+      <c r="G17" s="2">
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B18">
-        <v>79</v>
-      </c>
-      <c r="C18">
-        <f>0.5736*20</f>
-        <v>11.472</v>
-      </c>
-      <c r="D18">
-        <f>0.9574*20</f>
-        <v>19.148</v>
-      </c>
-      <c r="E18" s="1">
-        <v>12</v>
-      </c>
-      <c r="F18" s="1">
-        <v>20</v>
-      </c>
-      <c r="G18" s="1">
+        <v>295</v>
+      </c>
+      <c r="C18" s="1">
+        <f>TRUNC(0.541*26, 2)</f>
+        <v>14.06</v>
+      </c>
+      <c r="D18" s="3">
+        <f>TRUNC( 0.9372*16,2)</f>
+        <v>14.99</v>
+      </c>
+      <c r="E18" s="4">
         <v>6</v>
+      </c>
+      <c r="F18" s="4">
+        <f>TRUNC(235/295*16,2)</f>
+        <v>12.74</v>
+      </c>
+      <c r="G18" s="2">
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B19">
-        <v>81</v>
-      </c>
-      <c r="C19">
-        <f>0.7707*20</f>
-        <v>15.414000000000001</v>
-      </c>
-      <c r="D19">
-        <f>0.9295*20</f>
-        <v>18.59</v>
-      </c>
-      <c r="E19" s="1">
-        <v>19</v>
-      </c>
-      <c r="F19" s="1">
+        <v>791</v>
+      </c>
+      <c r="C19" s="1">
+        <f>TRUNC(0.5549*26, 2)</f>
+        <v>14.42</v>
+      </c>
+      <c r="D19" s="3">
+        <f>TRUNC( 0.9288*16,2)</f>
+        <v>14.86</v>
+      </c>
+      <c r="E19" s="4">
         <v>3</v>
       </c>
-      <c r="G19" s="1">
-        <v>7</v>
+      <c r="F19" s="4">
+        <f>TRUNC(713/791*16,2)</f>
+        <v>14.42</v>
+      </c>
+      <c r="G19" s="2">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:G23">
+    <sortCondition ref="G1"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
